--- a/data/trans_bre/P38A-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P38A-Dificultad-trans_bre.xlsx
@@ -618,7 +618,7 @@
         <v>9.379622812813636</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16.01113084053242</v>
+        <v>16.01113084053238</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>0.05754499423490492</v>
@@ -627,7 +627,7 @@
         <v>0.1160051581076587</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2266713659264251</v>
+        <v>0.2266713659264246</v>
       </c>
     </row>
     <row r="5">
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.354074675116284</v>
+        <v>1.712487971861848</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>6.471970745145677</v>
+        <v>6.696782000397866</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9.975767879454295</v>
+        <v>10.64823700376877</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.0159281155669662</v>
+        <v>0.02046132562625524</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.07917976708593337</v>
+        <v>0.08095273889535896</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1335639392697332</v>
+        <v>0.1433488332411355</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.004524394798802</v>
+        <v>7.833368019306898</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>12.28813897644531</v>
+        <v>12.33850043014054</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>21.56138921202172</v>
+        <v>21.85581468590683</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.09886891786191798</v>
+        <v>0.09620572516282576</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.1555726993277951</v>
+        <v>0.1581972348134616</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3275698542449269</v>
+        <v>0.3280622749914859</v>
       </c>
     </row>
     <row r="7">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.786712402217514</v>
+        <v>2.520212981420821</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.153283844939141</v>
+        <v>2.409974128001504</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6279814749944993</v>
+        <v>0.770197558262963</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.03236472798822765</v>
+        <v>0.02907031541117996</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.02509546702830547</v>
+        <v>0.02800797447487009</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.007084031478108972</v>
+        <v>0.009191454400541883</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>8.51848695618507</v>
+        <v>8.814806297913496</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>8.481589652810827</v>
+        <v>8.530909956903024</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8.237602849547748</v>
+        <v>8.17865763309624</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1040298585581732</v>
+        <v>0.1073581448217476</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1031762565478291</v>
+        <v>0.10375737531755</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1006386497523962</v>
+        <v>0.1008980033940973</v>
       </c>
     </row>
     <row r="10">
@@ -782,7 +782,7 @@
         <v>4.59227305482024</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2.44711502827667</v>
+        <v>2.447115028276692</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0.03159970786626264</v>
@@ -791,7 +791,7 @@
         <v>0.05253360629191059</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02843696766532945</v>
+        <v>0.02843696766532971</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.2192784373099584</v>
+        <v>-0.1153085026211635</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.166489539507142</v>
+        <v>1.661966604120305</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.6344463657815619</v>
+        <v>-1.084662004864962</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.002459601671345467</v>
+        <v>-0.0013088351595342</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.01382734204874411</v>
+        <v>0.0188077026000057</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.00748698135142757</v>
+        <v>-0.01233455412110914</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.618489185905318</v>
+        <v>6.019297455828313</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.425452356426275</v>
+        <v>7.284718826263512</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.729169462895756</v>
+        <v>5.926489314299084</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.06486447512218638</v>
+        <v>0.06886611868594163</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.08628447660542166</v>
+        <v>0.08515091069997301</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06807530919657416</v>
+        <v>0.07128054661667134</v>
       </c>
     </row>
     <row r="13">
@@ -864,7 +864,7 @@
         <v>4.237567343303938</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4.778518911507268</v>
+        <v>4.77851891150729</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.04196432359007705</v>
@@ -873,7 +873,7 @@
         <v>0.05129642181224236</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05624122066475176</v>
+        <v>0.05624122066475203</v>
       </c>
     </row>
     <row r="14">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.5152689199740946</v>
+        <v>-0.1103044184654622</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.2524120216303433</v>
+        <v>-0.3447431866121335</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.240831915188361</v>
+        <v>1.301035163438949</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.006020824175728299</v>
+        <v>-0.001204494598663088</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.002955832279963558</v>
+        <v>-0.003934289797333925</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01455882617955904</v>
+        <v>0.01460077157526065</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.604024239289961</v>
+        <v>7.836083553403029</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>9.098071760419364</v>
+        <v>8.747442878157322</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>8.040216672696729</v>
+        <v>8.485454181628906</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.08886026884810951</v>
+        <v>0.0921064420554341</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1136394151979621</v>
+        <v>0.1093052989669266</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.09812347685069044</v>
+        <v>0.1022096312503854</v>
       </c>
     </row>
     <row r="16">
@@ -946,7 +946,7 @@
         <v>6.345444812160894</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5.484014174397245</v>
+        <v>5.484014174397256</v>
       </c>
       <c r="F16" s="6" t="n">
         <v>0.05012316696222899</v>
@@ -955,7 +955,7 @@
         <v>0.0759519731022936</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06607822542445131</v>
+        <v>0.06607822542445145</v>
       </c>
     </row>
     <row r="17">
@@ -966,22 +966,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.513265747297049</v>
+        <v>2.644911497039188</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>4.68495247198765</v>
+        <v>4.635973534331765</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.361889621618847</v>
+        <v>3.531572271962342</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.0294319422644101</v>
+        <v>0.03082559875974787</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.05527935754443301</v>
+        <v>0.05503895719879753</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04047531357477447</v>
+        <v>0.04189161947105304</v>
       </c>
     </row>
     <row r="18">
@@ -992,22 +992,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.989548505792691</v>
+        <v>5.81165523598176</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.084094045287797</v>
+        <v>8.146445400944916</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.283749201764775</v>
+        <v>7.466097397230367</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.07167644468238286</v>
+        <v>0.06888186923166502</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.09815071396380234</v>
+        <v>0.09847060457635748</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.08985270191432515</v>
+        <v>0.09126968794654879</v>
       </c>
     </row>
     <row r="19">
